--- a/01_Input/00_CO Validation/India - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/India - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="343" documentId="11_205CCE8673D824AFE5FBA3BCDECF12A4B06896D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6168246-5DE2-4D0D-BEBE-58AE6F14835D}"/>
+  <xr:revisionPtr revIDLastSave="370" documentId="11_205CCE8673D824AFE5FBA3BCDECF12A4B06896D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27ED3C47-0BDB-43D3-BB6A-661DCAC00E98}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="118">
   <si>
     <t>Project ID</t>
   </si>
@@ -99,169 +102,175 @@
     <t>Health Services</t>
   </si>
   <si>
+    <t>Number of beneficiaries benefited form PHCs provided with Solar PV backup</t>
+  </si>
+  <si>
+    <t>10 kWp battery backed systems installed at each of these PHCs, a total of approx. 25,000 persons use their services annually</t>
+  </si>
+  <si>
+    <t>This was the Green Recovery Project supported by UNDP Rapid Finance Facility in 2021-2022. Approx. 77.28 tCO2 equivalent per yr abated</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Electricity Access</t>
+  </si>
+  <si>
+    <t>Small Enterprises</t>
+  </si>
+  <si>
+    <t>Number of enterprises energized</t>
+  </si>
+  <si>
+    <t>10 kWp battery backed systems installed at each of these enterprises, approx 50 women direct beneficiaries</t>
+  </si>
+  <si>
+    <t>Energy Efficiency and Thermal Comfort in Buildings</t>
+  </si>
+  <si>
+    <t>PIMS+</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
+    <t>Number of energy efficient buildings piloted</t>
+  </si>
+  <si>
+    <t>EE measures in specific buildings to be decided </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under this GEF supported project, super EE technologies will be piloted in select public, private buildings across 3 States in India. The total estimated GHG reduction potential from this pilot is estimated to be 26.6 ktCO2 per year </t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>to the CO: Please estimate number of beneficiaries or CO2 emissions reduction</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Scaling Solar Applications for Agricultural Use</t>
+  </si>
+  <si>
+    <t>Agricultural Services</t>
+  </si>
+  <si>
+    <t>Number of solar based irrigation systems (agricultural pumps) deployed</t>
+  </si>
+  <si>
+    <t>1000 indirect beneficiaires, considering an average family size of 5.</t>
+  </si>
+  <si>
+    <t>This project is being implemented in partnership with International Solar Alliance (ISA) across 10 of its member countries. Estimation : Approx. 87.84 tCO2 per year will be abated</t>
+  </si>
+  <si>
+    <t>to the CO: Please estimate number of beneficiaries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSB-NZE 2021 project </t>
+  </si>
+  <si>
+    <t>Number of people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE measures in specific buildings to be decided </t>
+  </si>
+  <si>
+    <t>The project support by Govt of Japan is being implemented across several States in India. The approximate GHJG emissions abated from the interventions is 778.32 tCo2 equivalent per yr</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Number of beneficiaries</t>
+  </si>
+  <si>
+    <t>5 kW solar cold storages installed, Approx. 950 beneficieries per yr</t>
+  </si>
+  <si>
+    <t>approx 50,000 beneficieries in one year</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t>Number of persons trained on green livelihoods</t>
+  </si>
+  <si>
+    <t>300 (Solar PV), 681 (Cold Storage &amp; EV)- as on 13 Apr 2023</t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t>Number of persons trained on entrepreneurship</t>
+  </si>
+  <si>
+    <t>Trained on Agri-value chain &amp; 21st Century Skills </t>
+  </si>
+  <si>
+    <t>GHG Emission Reduction</t>
+  </si>
+  <si>
+    <t>tCO2 avoided</t>
+  </si>
+  <si>
+    <t>Facilitating 49,200 MWh cumulative emissions reduction annually</t>
+  </si>
+  <si>
+    <t>JSB-NZE 2022 project</t>
+  </si>
+  <si>
+    <t>Medium Enterprises</t>
+  </si>
+  <si>
+    <t>Number of Steel units supported for energy transitions</t>
+  </si>
+  <si>
+    <t>approx. 12500 indirect beneficieries (100 workers per mini plant)</t>
+  </si>
+  <si>
+    <t>The project support by Govt of Japan is being implemented across several States in India. The estimated GHG emissions abated from the interventions is 92,500 tCo2 equivalent per yr (only from interventions in Steel sector. The GHG emissions abated from other interventions will be calculated based on the sizes of actual units deployed)</t>
+  </si>
+  <si>
+    <t>DRE for Livelihoods </t>
+  </si>
+  <si>
+    <t>To be calculated based on the deployment of systems/units</t>
+  </si>
+  <si>
+    <t>EV for Waste Collection </t>
+  </si>
+  <si>
+    <t>approx. 200,000 indirect beneficieries </t>
+  </si>
+  <si>
+    <t>Policy Framework - Just Transition</t>
+  </si>
+  <si>
+    <t>No of people informed on principles of JT  </t>
+  </si>
+  <si>
+    <t>GHG Emissions Reduction</t>
+  </si>
+  <si>
+    <t>Direct Beneficiaries</t>
+  </si>
+  <si>
     <t>Number of PHCs provided with Solar PV backup</t>
-  </si>
-  <si>
-    <t>10 kWp battery backed systems installed at each of these PHCs, a total of approx. 25,000 persons use their services annually</t>
-  </si>
-  <si>
-    <t>This was the Green Recovery Project supported by UNDP Rapid Finance Facility in 2021-2022. Approx. 77.28 tCO2 equivalent per yr abated</t>
-  </si>
-  <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>Small Enterprises</t>
-  </si>
-  <si>
-    <t>Number of enterprises energized</t>
-  </si>
-  <si>
-    <t>10 kWp battery backed systems installed at each of these enterprises, approx 50 women direct beneficiaries</t>
-  </si>
-  <si>
-    <t>Energy Efficiency and Thermal Comfort in Buildings</t>
-  </si>
-  <si>
-    <t>PIMS+</t>
-  </si>
-  <si>
-    <t>Other Energy Services</t>
-  </si>
-  <si>
-    <t>Number of energy efficient buildings piloted</t>
-  </si>
-  <si>
-    <t>EE measures in specific buildings to be decided </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under this GEF supported project, super EE technologies will be piloted in select public, private buildings across 3 States in India. The total estimated GHG reduction potential from this pilot is estimated to be 26.6 ktCO2 per year </t>
-  </si>
-  <si>
-    <t>VF</t>
-  </si>
-  <si>
-    <t>to the CO: Please estimate number of beneficiaries or CO2 emissions reduction</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Scaling Solar Applications for Agricultural Use</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Number of solar based irrigation systems (agricultural pumps) deployed</t>
-  </si>
-  <si>
-    <t>1000 indirect beneficiaires, considering an average family size of 5.</t>
-  </si>
-  <si>
-    <t>This project is being implemented in partnership with International Solar Alliance (ISA) across 10 of its member countries. Estimation : Approx. 87.84 tCO2 per year will be abated</t>
-  </si>
-  <si>
-    <t>to the CO: Please estimate number of beneficiaries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSB-NZE 2021 project </t>
-  </si>
-  <si>
-    <t>Number of people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE measures in specific buildings to be decided </t>
-  </si>
-  <si>
-    <t>The project support by Govt of Japan is being implemented across several States in India. The approximate GHJG emissions abated from the interventions is 778.32 tCo2 equivalent per yr</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Number of beneficiaries</t>
-  </si>
-  <si>
-    <t>5 kW solar cold storages installed, Approx. 950 beneficieries per yr</t>
-  </si>
-  <si>
-    <t>approx 50,000 beneficieries in one year</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Number of persons trained on green livelihoods</t>
-  </si>
-  <si>
-    <t>300 (Solar PV), 681 (Cold Storage &amp; EV)- as on 13 Apr 2023</t>
-  </si>
-  <si>
-    <t>Entrepreneurship Training</t>
-  </si>
-  <si>
-    <t>Number of persons trained on entrepreneurship</t>
-  </si>
-  <si>
-    <t>Trained on Agri-value chain &amp; 21st Century Skills </t>
-  </si>
-  <si>
-    <t>GHG Emission Reduction</t>
-  </si>
-  <si>
-    <t>tCO2 avoided</t>
-  </si>
-  <si>
-    <t>Facilitating 49,200 MWh cumulative emissions reduction annually</t>
-  </si>
-  <si>
-    <t>JSB-NZE 2022 project</t>
-  </si>
-  <si>
-    <t>Medium Enterprises</t>
-  </si>
-  <si>
-    <t>Number of Steel units supported for energy transitions</t>
-  </si>
-  <si>
-    <t>approx. 12500 indirect beneficieries (100 workers per mini plant)</t>
-  </si>
-  <si>
-    <t>The project support by Govt of Japan is being implemented across several States in India. The estimated GHG emissions abated from the interventions is 92,500 tCo2 equivalent per yr (only from interventions in Steel sector. The GHG emissions abated from other interventions will be calculated based on the sizes of actual units deployed)</t>
-  </si>
-  <si>
-    <t>DRE for Livelihoods </t>
-  </si>
-  <si>
-    <t>To be calculated based on the deployment of systems/units</t>
-  </si>
-  <si>
-    <t>EV for Waste Collection </t>
-  </si>
-  <si>
-    <t>approx. 200,000 indirect beneficieries </t>
-  </si>
-  <si>
-    <t>Policy Framework - Just Transition</t>
-  </si>
-  <si>
-    <t>No of people informed on principles of JT  </t>
-  </si>
-  <si>
-    <t>Direct Beneficiaries</t>
   </si>
   <si>
     <t>Numeber of people</t>
@@ -387,7 +396,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -453,7 +462,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,8 +517,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -593,6 +608,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -601,7 +673,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -673,14 +745,155 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -705,99 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1106,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4A7B69-4984-472F-B103-E50970C5407E}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1125,610 +1245,615 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="60.75">
-      <c r="A2" s="62">
+      <c r="A2" s="51">
         <v>133229</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="53">
         <v>668218</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="65">
-        <v>0</v>
-      </c>
-      <c r="H2" s="73">
+      <c r="G2" s="62">
+        <v>0</v>
+      </c>
+      <c r="H2" s="63">
+        <v>25000</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+    </row>
+    <row r="3" spans="1:19" ht="30.75">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0</v>
+      </c>
+      <c r="H3" s="46">
+        <v>50</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+    </row>
+    <row r="4" spans="1:19" ht="60.75">
+      <c r="A4" s="50">
+        <v>116294</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="50">
+        <v>4484357</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0</v>
+      </c>
+      <c r="H4" s="46">
+        <v>52</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+    </row>
+    <row r="5" spans="1:19" ht="60.75">
+      <c r="A5" s="53">
+        <v>1000316</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="37">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47">
+        <v>200</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1">
+      <c r="A6" s="64">
+        <v>127730</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="57">
+        <v>1782418</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="38">
         <v>2</v>
       </c>
-      <c r="I2" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62" t="s">
+      <c r="H6" s="46">
+        <v>60000</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="61" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-    </row>
-    <row r="3" spans="1:19" ht="30.75">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="61" t="s">
+      <c r="P6" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="57">
+        <v>635649</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="38">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46">
+        <v>950</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="57">
+        <v>200000</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46">
+        <v>50000</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="57">
+        <v>265000</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46">
+        <v>981</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+    </row>
+    <row r="10" spans="1:19" ht="30.75">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="57">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0</v>
+      </c>
+      <c r="H10" s="46">
+        <v>690</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+    </row>
+    <row r="11" spans="1:19" ht="30.75">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="57">
+        <v>150000</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46">
+        <v>38434</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
+      <c r="A12" s="64">
+        <v>1000354</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="57">
+        <v>695057</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0</v>
+      </c>
+      <c r="H12" s="46">
+        <v>125</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="36"/>
+      <c r="L12" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="45"/>
+      <c r="O12" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+    </row>
+    <row r="13" spans="1:19" ht="60.75">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="57">
+        <v>1764000</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="65">
-        <v>0</v>
-      </c>
-      <c r="H3" s="73">
-        <v>50</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-    </row>
-    <row r="4" spans="1:19" ht="60.75">
-      <c r="A4" s="61">
-        <v>116294</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="61">
-        <v>4484357</v>
-      </c>
-      <c r="E4" s="61" t="s">
+      <c r="F13" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="38">
+        <v>0</v>
+      </c>
+      <c r="H13" s="46">
+        <v>400</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="57">
+        <v>542004</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="65">
-        <v>0</v>
-      </c>
-      <c r="H4" s="73">
-        <v>52</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-    </row>
-    <row r="5" spans="1:19" ht="60.75">
-      <c r="A5" s="64">
-        <v>1000316</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="64">
-        <v>200000</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="64">
-        <v>0</v>
-      </c>
-      <c r="H5" s="74">
-        <v>200</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="67" t="s">
+      <c r="F14" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="38">
+        <v>0</v>
+      </c>
+      <c r="H14" s="46">
+        <v>100</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="62">
-        <v>127730</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="65">
-        <v>1782418</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="65">
-        <v>2</v>
-      </c>
-      <c r="H6" s="73">
-        <v>60000</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="65">
-        <v>635649</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="65">
-        <v>0</v>
-      </c>
-      <c r="H7" s="73">
-        <v>950</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="65">
-        <v>200000</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="65">
-        <v>0</v>
-      </c>
-      <c r="H8" s="73">
-        <v>50000</v>
-      </c>
-      <c r="I8" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="65">
-        <v>265000</v>
-      </c>
-      <c r="E9" s="61" t="s">
+      <c r="N14" s="45"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="57">
+        <v>500000</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="65">
-        <v>0</v>
-      </c>
-      <c r="H9" s="73">
-        <v>981</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-    </row>
-    <row r="10" spans="1:19" ht="30.75">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="65">
-        <v>150000</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="65">
-        <v>0</v>
-      </c>
-      <c r="H10" s="73">
-        <v>690</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-    </row>
-    <row r="11" spans="1:19" ht="30.75">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="65">
-        <v>150000</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="65">
-        <v>0</v>
-      </c>
-      <c r="H11" s="73">
-        <v>38434</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="A12" s="62">
-        <v>1000354</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="65">
-        <v>695057</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="65">
-        <v>0</v>
-      </c>
-      <c r="H12" s="73">
-        <v>125</v>
-      </c>
-      <c r="I12" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="72"/>
-      <c r="O12" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-    </row>
-    <row r="13" spans="1:19" ht="60.75">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="65">
-        <v>1764000</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="65">
-        <v>0</v>
-      </c>
-      <c r="H13" s="73">
-        <v>400</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="72"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="65">
-        <v>542004</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="65">
-        <v>0</v>
-      </c>
-      <c r="H14" s="73">
-        <v>100</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="72"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="65">
-        <v>500000</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="65">
-        <v>0</v>
-      </c>
-      <c r="H15" s="73">
+      <c r="G15" s="38">
+        <v>0</v>
+      </c>
+      <c r="H15" s="46">
         <v>2500</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="72"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19">
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9">
+        <v>92500</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="M16" s="17"/>
       <c r="N16" s="10"/>
@@ -1743,9 +1868,7 @@
     </row>
     <row r="18" spans="4:14">
       <c r="D18" s="16"/>
-      <c r="F18" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1754,7 +1877,6 @@
     </row>
     <row r="19" spans="4:14">
       <c r="D19" s="16"/>
-      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1805,9 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65C267A-3E41-44E5-9120-EC45FBC9E7E3}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1848,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>8</v>
@@ -1883,13 +2003,13 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="33">
+      <c r="A2" s="73">
         <v>133229</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="75" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="26">
@@ -1899,7 +2019,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G2" s="22">
         <v>0</v>
@@ -1913,15 +2033,15 @@
       <c r="J2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="55"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="65"/>
       <c r="P2" t="s">
         <v>27</v>
       </c>
@@ -1930,9 +2050,9 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="58"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="26"/>
       <c r="E3" s="20" t="s">
         <v>29</v>
@@ -1950,11 +2070,11 @@
       <c r="J3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="56"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="66"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="20">
@@ -2049,13 +2169,13 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="33">
+      <c r="A6" s="73">
         <v>127730</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="22">
         <v>1782418</v>
       </c>
@@ -2063,7 +2183,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" s="22">
         <v>2</v>
@@ -2075,15 +2195,15 @@
       <c r="J6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="44" t="s">
+      <c r="L6" s="73"/>
+      <c r="M6" s="80" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="23"/>
-      <c r="O6" s="52"/>
+      <c r="O6" s="67"/>
       <c r="P6" t="s">
         <v>27</v>
       </c>
@@ -2092,9 +2212,9 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="22">
         <v>635649</v>
       </c>
@@ -2114,16 +2234,16 @@
       <c r="J7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="45"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="23"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="68"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="22">
         <v>200000</v>
       </c>
@@ -2143,16 +2263,16 @@
       <c r="J8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="45"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="81"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="53"/>
+      <c r="O8" s="68"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="22">
         <v>265000</v>
       </c>
@@ -2172,16 +2292,16 @@
       <c r="J9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="45"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="23"/>
-      <c r="O9" s="53"/>
+      <c r="O9" s="68"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="22">
         <v>150000</v>
       </c>
@@ -2201,16 +2321,16 @@
       <c r="J10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="45"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="53"/>
+      <c r="O10" s="68"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="22">
         <v>150000</v>
       </c>
@@ -2230,20 +2350,20 @@
       <c r="J11" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="46"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="82"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="54"/>
+      <c r="O11" s="69"/>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1">
-      <c r="A12" s="33">
+      <c r="A12" s="73">
         <v>1000354</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="22">
         <v>695057</v>
       </c>
@@ -2263,17 +2383,17 @@
       <c r="J12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="44" t="s">
+      <c r="L12" s="73"/>
+      <c r="M12" s="80" t="s">
         <v>25</v>
       </c>
       <c r="N12" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="49"/>
+      <c r="O12" s="70"/>
       <c r="P12" t="s">
         <v>27</v>
       </c>
@@ -2282,9 +2402,9 @@
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="22">
         <v>1764000</v>
       </c>
@@ -2304,11 +2424,11 @@
       <c r="J13" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="45"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="50"/>
+      <c r="O13" s="71"/>
       <c r="P13" t="s">
         <v>27</v>
       </c>
@@ -2317,9 +2437,9 @@
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="22">
         <v>542004</v>
       </c>
@@ -2339,17 +2459,17 @@
       <c r="J14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="45"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="50"/>
+      <c r="O14" s="71"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="20"/>
       <c r="D15" s="22">
         <v>500000</v>
@@ -2370,11 +2490,11 @@
       <c r="J15" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="51"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="46"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="82"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="51"/>
+      <c r="O15" s="72"/>
     </row>
     <row r="16" spans="1:20">
       <c r="F16" s="9"/>
@@ -2421,6 +2541,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="M6:M11"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="L6:L11"/>
+    <mergeCell ref="L12:L15"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="O6:O11"/>
     <mergeCell ref="O12:O15"/>
@@ -2437,12 +2563,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="K6:K11"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="M6:M11"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="L6:L11"/>
-    <mergeCell ref="L12:L15"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P15" xr:uid="{C0A7BE9E-F9DC-4C5A-93ED-FE760A0CCE37}">
@@ -2549,7 +2669,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
@@ -2561,9 +2681,9 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="83" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2586,9 +2706,9 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="37"/>
+        <v>80</v>
+      </c>
+      <c r="K3" s="84"/>
     </row>
     <row r="4" spans="1:11">
       <c r="C4" s="2"/>
@@ -2629,7 +2749,7 @@
         <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>37</v>
@@ -2669,7 +2789,7 @@
         <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>46</v>
@@ -2697,7 +2817,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G9" s="9">
         <v>2</v>
@@ -2706,9 +2826,9 @@
         <v>61</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="85" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2720,7 +2840,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -2731,7 +2851,7 @@
       <c r="I10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="85"/>
     </row>
     <row r="11" spans="1:11">
       <c r="D11" s="9">
@@ -2741,7 +2861,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G11" s="9">
         <v>0</v>
@@ -2752,7 +2872,7 @@
       <c r="I11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="38"/>
+      <c r="K11" s="85"/>
     </row>
     <row r="12" spans="1:11">
       <c r="D12" s="9">
@@ -2773,7 +2893,7 @@
       <c r="I12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="85"/>
     </row>
     <row r="13" spans="1:11">
       <c r="D13" s="9">
@@ -2794,7 +2914,7 @@
       <c r="I13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="38"/>
+      <c r="K13" s="85"/>
     </row>
     <row r="14" spans="1:11">
       <c r="D14" s="9">
@@ -2804,7 +2924,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -2815,7 +2935,7 @@
       <c r="I14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="85"/>
     </row>
     <row r="15" spans="1:11">
       <c r="E15" s="3"/>
@@ -2850,7 +2970,7 @@
       <c r="I16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="86" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2873,7 +2993,7 @@
       <c r="I17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="86"/>
     </row>
     <row r="18" spans="4:11">
       <c r="D18" s="9">
@@ -2894,7 +3014,7 @@
       <c r="I18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="39"/>
+      <c r="K18" s="86"/>
     </row>
     <row r="19" spans="4:11">
       <c r="D19" s="9">
@@ -2915,7 +3035,7 @@
       <c r="I19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="39"/>
+      <c r="K19" s="86"/>
     </row>
     <row r="20" spans="4:11">
       <c r="F20" s="9"/>
@@ -2933,7 +3053,7 @@
     </row>
     <row r="22" spans="4:11">
       <c r="D22" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -2943,7 +3063,7 @@
     </row>
     <row r="23" spans="4:11">
       <c r="D23" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2991,160 +3111,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="40" t="s">
-        <v>89</v>
+      <c r="A2" s="87" t="s">
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="87"/>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="87"/>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="41" t="s">
-        <v>95</v>
+      <c r="A5" s="88" t="s">
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="88"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="88"/>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="88"/>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="88"/>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="42" t="s">
-        <v>103</v>
+      <c r="A10" s="89" t="s">
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="89"/>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="43" t="s">
-        <v>106</v>
+      <c r="A12" s="90" t="s">
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="90"/>
       <c r="B13" t="s">
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="43"/>
+      <c r="A14" s="90"/>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3159,6 +3279,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3407,17 +3538,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3428,11 +3548,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EAAC9BA-4594-425E-9896-5A471FB71A85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8202B8D7-1910-4859-8982-71D012229A9C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8202B8D7-1910-4859-8982-71D012229A9C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EAAC9BA-4594-425E-9896-5A471FB71A85}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
